--- a/efficiency of qPCR reactions.xlsx
+++ b/efficiency of qPCR reactions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95839bcc6a87b97e/Dokumenter/Leistad Fysioterapi og Trening AS/Master 23-25/IDR4000/Molekylærlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95839bcc6a87b97e/Dokumenter/Leistad Fysioterapi og Trening AS/Master 23-25/IDR4000/Arbeidskrav/regression_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="8_{BB1D03AE-9577-435E-805C-34726191E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69DE700F-40D6-4A05-8611-A97E6D1A35FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AF54491C-CB2F-4E4D-91D7-5A9A99921D0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AF54491C-CB2F-4E4D-91D7-5A9A99921D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dilution series (c-myc) (3)" sheetId="4" r:id="rId1"/>
@@ -1731,10 +1731,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -2584,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21393A19-7B3F-4F97-A7DC-3EA789F1FB80}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:J23"/>
     </sheetView>
   </sheetViews>
@@ -3136,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5DCF40-58C9-42B0-9571-D99B7F6F5D79}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J9"/>
     </sheetView>
   </sheetViews>
